--- a/Resultados/Lista_unique_rutas.xlsx
+++ b/Resultados/Lista_unique_rutas.xlsx
@@ -443,147 +443,147 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D001013</t>
+          <t>D001016</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D001005</t>
+          <t>D001055</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D003102</t>
+          <t>D001062</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D001060</t>
+          <t>D001048</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D002002</t>
+          <t>D002053</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D001033</t>
+          <t>D001022</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D001021</t>
+          <t>D004037</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D004005</t>
+          <t>D002014</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D002015</t>
+          <t>D001032</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D002048</t>
+          <t>D001034</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D001059</t>
+          <t>D001042</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D001102</t>
+          <t>D003033</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D004025</t>
+          <t>D003043</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D002035</t>
+          <t>D003047</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D002040</t>
+          <t>D001104</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D001014</t>
+          <t>D001105</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D001024</t>
+          <t>D004016</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D003067</t>
+          <t>D002049</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D004004</t>
+          <t>D001026</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D004110</t>
+          <t>D001030</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D004014</t>
+          <t>D001014</t>
         </is>
       </c>
     </row>
@@ -604,924 +604,924 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D001025</t>
+          <t>D001024</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D001015</t>
+          <t>D002051</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D004003</t>
+          <t>D003046</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D002018</t>
+          <t>D001004</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D002054</t>
+          <t>D001012</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D001056</t>
+          <t>D004036</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D003058</t>
+          <t>D001052</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D003021</t>
+          <t>D004007</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D003029</t>
+          <t>D002036</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D001045</t>
+          <t>D002042</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D003101</t>
+          <t>D003030</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D002041</t>
+          <t>D003034</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D002031</t>
+          <t>D001108</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>D002017</t>
+          <t>D001301</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D001053</t>
+          <t>D003037</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>D001049</t>
+          <t>D003008</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>D001302</t>
+          <t>D003105</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>D002005</t>
+          <t>D002056</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>D004010</t>
+          <t>D002108</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>D001018</t>
+          <t>D003004</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>D001020</t>
+          <t>D001018</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>D001027</t>
+          <t>D001020</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>D004008</t>
+          <t>D001027</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>D003001</t>
+          <t>D002023</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>D004039</t>
+          <t>D002025</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>D002023</t>
+          <t>D004039</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>D004111</t>
+          <t>D001015</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>D001112</t>
+          <t>D001056</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>D001202</t>
+          <t>D001025</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>D001047</t>
+          <t>D003044</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>D001023</t>
+          <t>D002057</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>D004001</t>
+          <t>D002013</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>D001110</t>
+          <t>D001053</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>D004015</t>
+          <t>D004014</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>D002052</t>
+          <t>D001031</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>D003059</t>
+          <t>D004011</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>D001006</t>
+          <t>D004012</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>D003103</t>
+          <t>D001109</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>D003007</t>
+          <t>D004024</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>D002038</t>
+          <t>D004027</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>D003055</t>
+          <t>D001101</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>D003035</t>
+          <t>D003014</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>D002021</t>
+          <t>D002006</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>D002025</t>
+          <t>D004008</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>D001031</t>
+          <t>D003001</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>D001004</t>
+          <t>D003045</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>D001012</t>
+          <t>D003002</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>D004036</t>
+          <t>D002028</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>D001052</t>
+          <t>D001049</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>D003020</t>
+          <t>D004040</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>D001037</t>
+          <t>D002022</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>D001108</t>
+          <t>D003038</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>D002006</t>
+          <t>D001111</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>D003014</t>
+          <t>D001201</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>D003008</t>
+          <t>D002001</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>D003030</t>
+          <t>D002003</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>D003015</t>
+          <t>D004002</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>D004041</t>
+          <t>D002032</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>D001032</t>
+          <t>D002017</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>D001034</t>
+          <t>D004110</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>D001022</t>
+          <t>D003057</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>D004006</t>
+          <t>D003020</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>D004037</t>
+          <t>D001013</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>D002014</t>
+          <t>D001005</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>D002051</t>
+          <t>D001060</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>D001009</t>
+          <t>D002002</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>D002008</t>
+          <t>D002035</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>D002011</t>
+          <t>D001059</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>D002012</t>
+          <t>D001045</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>D002055</t>
+          <t>D003029</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>D001058</t>
+          <t>D001021</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>D004026</t>
+          <t>D001033</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>D003016</t>
+          <t>D003041</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>D002013</t>
+          <t>D001007</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>D002049</t>
+          <t>D001008</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>D002056</t>
+          <t>D003027</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>D001104</t>
+          <t>D003028</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>D001105</t>
+          <t>D002009</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>D004023</t>
+          <t>D002010</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>D004028</t>
+          <t>D002037</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>D003033</t>
+          <t>D002026</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>D001016</t>
+          <t>D001023</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>D001026</t>
+          <t>D004038</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>D001030</t>
+          <t>D001047</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>D004002</t>
+          <t>D001050</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>D001055</t>
+          <t>D004015</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>D001062</t>
+          <t>D002052</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>D001094</t>
+          <t>D001058</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>D004013</t>
+          <t>D001009</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>D003002</t>
+          <t>D003042</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>D001003</t>
+          <t>D001106</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>D001011</t>
+          <t>D004009</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>D001044</t>
+          <t>D004013</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>D001039</t>
+          <t>D002054</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>D004022</t>
+          <t>D001006</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>D001048</t>
+          <t>D003035</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>D004040</t>
+          <t>D002038</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>D001042</t>
+          <t>D003036</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>D003018</t>
+          <t>D003007</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>D004108</t>
+          <t>D003055</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>D002108</t>
+          <t>D002021</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>D003004</t>
+          <t>D002048</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>D001007</t>
+          <t>D001102</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>D001008</t>
+          <t>D004030</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>D002037</t>
+          <t>D001103</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>D002009</t>
+          <t>D001003</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>D002010</t>
+          <t>D001044</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>D003104</t>
+          <t>D003032</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>D003027</t>
+          <t>D002050</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>D002004</t>
+          <t>D003039</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>D002057</t>
+          <t>D004041</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>D002036</t>
+          <t>D001019</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>D004007</t>
+          <t>D001002</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>D004017</t>
+          <t>D001010</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>D002050</t>
+          <t>D001061</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>D001103</t>
+          <t>D002034</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>D003032</t>
+          <t>D003106</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>D004112</t>
+          <t>D002024</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>D003039</t>
+          <t>D003031</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>D003049</t>
+          <t>D002016</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>D002107</t>
+          <t>D003067</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>D003003</t>
+          <t>D004004</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>D001002</t>
+          <t>D002055</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>D001010</t>
+          <t>D002008</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>D001019</t>
+          <t>D002011</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>D003106</t>
+          <t>D002012</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>D001061</t>
+          <t>D001107</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>D003031</t>
+          <t>D002039</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>D002034</t>
+          <t>D002044</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>D003028</t>
+          <t>D003006</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>D002024</t>
+          <t>D003016</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>D003017</t>
+          <t>D003019</t>
         </is>
       </c>
     </row>
@@ -1535,420 +1535,420 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>D003056</t>
+          <t>D004111</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>D003060</t>
+          <t>D002018</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>D004042</t>
+          <t>D001094</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>D004016</t>
+          <t>D002015</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>D004043</t>
+          <t>D002040</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>D004044</t>
+          <t>D003021</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>D002022</t>
+          <t>D002031</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>D003043</t>
+          <t>D004101</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>D003047</t>
+          <t>D003049</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>D002026</t>
+          <t>D004017</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>D002016</t>
+          <t>D001011</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>D003009</t>
+          <t>D002004</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>D004038</t>
+          <t>D004112</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>D001050</t>
+          <t>D001110</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>D004018</t>
+          <t>D002109</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>D003034</t>
+          <t>D003061</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>D004109</t>
+          <t>D001202</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>D004024</t>
+          <t>D004003</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>D004027</t>
+          <t>D002041</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>D002109</t>
+          <t>D002020</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>D001101</t>
+          <t>D002005</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>D003105</t>
+          <t>D003101</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>D003036</t>
+          <t>D004005</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>D003053</t>
+          <t>D004023</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>D004035</t>
+          <t>D002107</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>D002020</t>
+          <t>D003003</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>D003045</t>
+          <t>D004001</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>D003057</t>
+          <t>D003018</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>D003061</t>
+          <t>D004043</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>D003301</t>
+          <t>D004044</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>D001036</t>
+          <t>D001112</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>D001106</t>
+          <t>D001036</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>D003019</t>
+          <t>D004026</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>D004021</t>
+          <t>D004025</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>D004045</t>
+          <t>D003053</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>D001041</t>
+          <t>D004010</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>D001107</t>
+          <t>D004029</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>D004009</t>
+          <t>D004022</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>D002039</t>
+          <t>D004031</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>D001109</t>
+          <t>D004018</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>D001111</t>
+          <t>D004108</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>D001201</t>
+          <t>D004028</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>D002001</t>
+          <t>D003009</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>D003051</t>
+          <t>D004042</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>D002032</t>
+          <t>D003017</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>D004034</t>
+          <t>D004045</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>D003062</t>
+          <t>D002019</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>D002053</t>
+          <t>D004109</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>D002042</t>
+          <t>D003058</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>D004030</t>
+          <t>D003059</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>D003046</t>
+          <t>D004035</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>D003042</t>
+          <t>D003013</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>D004019</t>
+          <t>D001302</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>D001301</t>
+          <t>D003301</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>D003063</t>
+          <t>D003015</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>D003006</t>
+          <t>D004107</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>D002044</t>
+          <t>D004006</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>D004031</t>
+          <t>D003103</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>D003023</t>
+          <t>D003056</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>D002028</t>
+          <t>D003060</t>
         </is>
       </c>
     </row>
@@ -1962,259 +1962,259 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>D004020</t>
+          <t>D004104</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>D003010</t>
+          <t>D002045</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>D002047</t>
+          <t>D004102</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>D002033</t>
+          <t>D003063</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>D004102</t>
+          <t>D003051</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>D004046</t>
+          <t>D003023</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>D003037</t>
+          <t>D001039</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>D004105</t>
+          <t>D003052</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>D002103</t>
+          <t>D002033</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>D004032</t>
+          <t>D002106</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>D004029</t>
+          <t>D002047</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>D003038</t>
+          <t>D002046</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>D003052</t>
+          <t>D003104</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>D004107</t>
+          <t>D004106</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>D002106</t>
+          <t>D004032</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>D003050</t>
+          <t>D004019</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>D003013</t>
+          <t>D003062</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>D004104</t>
+          <t>D001041</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>D002045</t>
+          <t>D003065</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>D002104</t>
+          <t>D004103</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>D003025</t>
+          <t>D004033</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>D004101</t>
+          <t>D002102</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>D002003</t>
+          <t>D004034</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>D004106</t>
+          <t>D003102</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>D003026</t>
+          <t>D003025</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>D004011</t>
+          <t>D003026</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>D002019</t>
+          <t>D002103</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>D004012</t>
+          <t>D003022</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>D003044</t>
+          <t>D002104</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>D002046</t>
+          <t>D001037</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>D004033</t>
+          <t>D002007</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>D004103</t>
+          <t>D004046</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>D003065</t>
+          <t>D003050</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>D002102</t>
+          <t>D004021</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>D003041</t>
+          <t>D004020</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>D002007</t>
+          <t>D003010</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>D003022</t>
+          <t>D004105</t>
         </is>
       </c>
     </row>

--- a/Resultados/Lista_unique_rutas.xlsx
+++ b/Resultados/Lista_unique_rutas.xlsx
@@ -443,1211 +443,1211 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D001016</t>
+          <t>D001301</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D001055</t>
+          <t>D001037</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D001062</t>
+          <t>D004109</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D001048</t>
+          <t>D004024</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D002053</t>
+          <t>D004027</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D001022</t>
+          <t>D003030</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D004037</t>
+          <t>D001018</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D002014</t>
+          <t>D001020</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D001032</t>
+          <t>D001027</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D001034</t>
+          <t>D004008</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D001042</t>
+          <t>D003001</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D003033</t>
+          <t>D001009</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D003043</t>
+          <t>D001106</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D003047</t>
+          <t>D001036</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D001104</t>
+          <t>D001041</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D001105</t>
+          <t>D004026</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D004016</t>
+          <t>D004009</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D002049</t>
+          <t>D002039</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D001026</t>
+          <t>D001019</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D001030</t>
+          <t>D001002</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D001014</t>
+          <t>D001010</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D002027</t>
+          <t>D003031</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D002030</t>
+          <t>D002034</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D001024</t>
+          <t>D001026</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D002051</t>
+          <t>D001030</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D003046</t>
+          <t>D001048</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D001004</t>
+          <t>D001016</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D001012</t>
+          <t>D001109</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D004036</t>
+          <t>D001032</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D001052</t>
+          <t>D001034</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D004007</t>
+          <t>D002014</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D002036</t>
+          <t>D001022</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D002042</t>
+          <t>D004037</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D003030</t>
+          <t>D003008</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D003034</t>
+          <t>D001108</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D001108</t>
+          <t>D002006</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>D001301</t>
+          <t>D003014</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D003037</t>
+          <t>D002023</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>D003008</t>
+          <t>D004039</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>D003105</t>
+          <t>D001033</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>D002056</t>
+          <t>D001045</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>D002108</t>
+          <t>D001021</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>D003004</t>
+          <t>D004025</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>D001018</t>
+          <t>D003029</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>D001020</t>
+          <t>D001059</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>D001027</t>
+          <t>D002044</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>D002023</t>
+          <t>D001058</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>D002025</t>
+          <t>D002008</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>D004039</t>
+          <t>D002011</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>D001015</t>
+          <t>D002012</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>D001056</t>
+          <t>D001107</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>D001025</t>
+          <t>D003016</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>D003044</t>
+          <t>D003019</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>D002057</t>
+          <t>D001061</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>D002013</t>
+          <t>D002024</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>D001053</t>
+          <t>D004045</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>D004014</t>
+          <t>D001101</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>D001031</t>
+          <t>D002025</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>D004011</t>
+          <t>D001111</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>D004012</t>
+          <t>D001201</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>D001109</t>
+          <t>D002019</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>D004024</t>
+          <t>D004040</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>D004027</t>
+          <t>D002051</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>D001101</t>
+          <t>D001302</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>D003014</t>
+          <t>D002015</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>D002006</t>
+          <t>D003034</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>D004008</t>
+          <t>D002109</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>D003001</t>
+          <t>D002055</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>D003045</t>
+          <t>D004018</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>D003002</t>
+          <t>D001014</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>D002028</t>
+          <t>D002017</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>D001049</t>
+          <t>D004110</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>D004040</t>
+          <t>D001053</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>D002022</t>
+          <t>D001024</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>D003038</t>
+          <t>D001044</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>D001111</t>
+          <t>D001003</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>D001201</t>
+          <t>D001011</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>D002001</t>
+          <t>D001039</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>D002003</t>
+          <t>D004022</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>D004002</t>
+          <t>D002001</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>D002032</t>
+          <t>D002003</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>D002017</t>
+          <t>D001007</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>D004110</t>
+          <t>D001008</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>D003057</t>
+          <t>D002037</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>D003020</t>
+          <t>D002009</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>D001013</t>
+          <t>D002010</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>D001005</t>
+          <t>D003027</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>D001060</t>
+          <t>D003028</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>D002002</t>
+          <t>D002043</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>D002035</t>
+          <t>D003056</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>D001059</t>
+          <t>D001055</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>D001045</t>
+          <t>D001012</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>D003029</t>
+          <t>D001031</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>D001021</t>
+          <t>D001004</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>D001033</t>
+          <t>D001052</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>D003041</t>
+          <t>D002016</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>D001007</t>
+          <t>D001047</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>D001008</t>
+          <t>D001050</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>D003027</t>
+          <t>D001110</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>D003028</t>
+          <t>D001023</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>D002009</t>
+          <t>D004011</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>D002010</t>
+          <t>D004012</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>D002037</t>
+          <t>D001062</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>D002026</t>
+          <t>D003017</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>D001023</t>
+          <t>D004036</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>D004038</t>
+          <t>D002036</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>D001047</t>
+          <t>D001006</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>D001050</t>
+          <t>D002038</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>D004015</t>
+          <t>D003007</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>D002052</t>
+          <t>D003055</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>D001058</t>
+          <t>D004043</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>D001009</t>
+          <t>D004038</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>D003042</t>
+          <t>D002042</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>D001106</t>
+          <t>D001042</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>D004009</t>
+          <t>D004023</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>D004013</t>
+          <t>D003033</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>D002054</t>
+          <t>D002013</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>D001006</t>
+          <t>D004042</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>D003035</t>
+          <t>D002049</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>D002038</t>
+          <t>D002056</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>D003036</t>
+          <t>D003047</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>D003007</t>
+          <t>D003060</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>D003055</t>
+          <t>D002108</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>D002021</t>
+          <t>D003018</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>D002048</t>
+          <t>D004028</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>D001102</t>
+          <t>D004108</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>D004030</t>
+          <t>D004016</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>D001103</t>
+          <t>D001005</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>D001003</t>
+          <t>D001013</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>D001044</t>
+          <t>D001060</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>D003032</t>
+          <t>D004010</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>D002050</t>
+          <t>D003004</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>D003039</t>
+          <t>D004044</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>D004041</t>
+          <t>D003103</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>D001019</t>
+          <t>D003106</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>D001002</t>
+          <t>D003006</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>D001010</t>
+          <t>D003010</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>D001061</t>
+          <t>D004105</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>D002034</t>
+          <t>D003057</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>D003106</t>
+          <t>D003009</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>D002024</t>
+          <t>D003035</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>D003031</t>
+          <t>D002020</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>D002016</t>
+          <t>D003105</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>D003067</t>
+          <t>D003053</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>D004004</t>
+          <t>D004035</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>D002055</t>
+          <t>D003067</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>D002008</t>
+          <t>D003020</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>D002011</t>
+          <t>D004007</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>D002012</t>
+          <t>D004004</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>D001107</t>
+          <t>D004014</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>D002039</t>
+          <t>D001025</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>D002044</t>
+          <t>D001049</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>D003006</t>
+          <t>D001015</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>D003016</t>
+          <t>D001112</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>D003019</t>
+          <t>D001202</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>D002043</t>
+          <t>D004013</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>D004111</t>
+          <t>D002004</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>D002018</t>
+          <t>D003032</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>D001094</t>
+          <t>D001103</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>D002015</t>
+          <t>D002027</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>D002040</t>
+          <t>D002030</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>D003021</t>
+          <t>D002050</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>D002031</t>
+          <t>D003039</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>D004101</t>
+          <t>D003049</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>D003049</t>
+          <t>D001056</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>D004017</t>
+          <t>D004112</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>D001011</t>
+          <t>D002107</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>D002004</t>
+          <t>D003003</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>D004112</t>
+          <t>D004111</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>D001110</t>
+          <t>D002054</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>D002109</t>
+          <t>D003002</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>D003061</t>
+          <t>D002018</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>D001202</t>
+          <t>D002022</t>
         </is>
       </c>
     </row>
@@ -1661,315 +1661,315 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>D002041</t>
+          <t>D001094</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>D002020</t>
+          <t>D003042</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>D002005</t>
+          <t>D002002</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>D003101</t>
+          <t>D003036</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>D004005</t>
+          <t>D003102</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>D004023</t>
+          <t>D002035</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>D002107</t>
+          <t>D002040</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>D003003</t>
+          <t>D004001</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>D004001</t>
+          <t>D004015</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>D003018</t>
+          <t>D002052</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>D004043</t>
+          <t>D004002</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>D004044</t>
+          <t>D002053</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>D001112</t>
+          <t>D003058</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>D001036</t>
+          <t>D003059</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>D004026</t>
+          <t>D002021</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>D004025</t>
+          <t>D002041</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>D003053</t>
+          <t>D002032</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>D004010</t>
+          <t>D003104</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>D004029</t>
+          <t>D003043</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>D004022</t>
+          <t>D004046</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>D004031</t>
+          <t>D002057</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>D004018</t>
+          <t>D004030</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>D004108</t>
+          <t>D003046</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>D004028</t>
+          <t>D002031</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>D003009</t>
+          <t>D002026</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>D004042</t>
+          <t>D004101</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>D003017</t>
+          <t>D003063</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>D004045</t>
+          <t>D003051</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>D002019</t>
+          <t>D002028</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>D004109</t>
+          <t>D004031</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>D003058</t>
+          <t>D004017</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>D003059</t>
+          <t>D001104</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>D004035</t>
+          <t>D004029</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>D003013</t>
+          <t>D003044</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>D001302</t>
+          <t>D003045</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>D003301</t>
+          <t>D003061</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>D003015</t>
+          <t>D003021</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>D004107</t>
+          <t>D004104</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>D004006</t>
+          <t>D002045</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>D003103</t>
+          <t>D003025</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>D003056</t>
+          <t>D004020</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>D003060</t>
+          <t>D004032</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>D002101</t>
+          <t>D001105</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>D004104</t>
+          <t>D003013</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>D002045</t>
+          <t>D002033</t>
         </is>
       </c>
     </row>
@@ -1983,28 +1983,28 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>D003063</t>
+          <t>D002047</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>D003051</t>
+          <t>D003023</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>D003023</t>
+          <t>D004107</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>D001039</t>
+          <t>D004006</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2018,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>D002033</t>
+          <t>D004106</t>
         </is>
       </c>
     </row>
@@ -2032,189 +2032,189 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>D002047</t>
+          <t>D002101</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>D002046</t>
+          <t>D003026</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>D003104</t>
+          <t>D004034</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>D004106</t>
+          <t>D004103</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>D004032</t>
+          <t>D004033</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>D004019</t>
+          <t>D002046</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>D003062</t>
+          <t>D003037</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>D001041</t>
+          <t>D003062</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>D003065</t>
+          <t>D004019</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>D004103</t>
+          <t>D003065</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>D004033</t>
+          <t>D002102</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>D002102</t>
+          <t>D003050</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>D004034</t>
+          <t>D003038</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>D003102</t>
+          <t>D004021</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>D003025</t>
+          <t>D002103</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>D003026</t>
+          <t>D002104</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>D002103</t>
+          <t>D004041</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>D003022</t>
+          <t>D002005</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>D002104</t>
+          <t>D003015</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>D001037</t>
+          <t>D001102</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>D002007</t>
+          <t>D003101</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>D004046</t>
+          <t>D004005</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>D003050</t>
+          <t>D002048</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>D004021</t>
+          <t>D003041</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>D004020</t>
+          <t>D003301</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>D003010</t>
+          <t>D002007</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>D004105</t>
+          <t>D003022</t>
         </is>
       </c>
     </row>

--- a/Resultados/Lista_unique_rutas.xlsx
+++ b/Resultados/Lista_unique_rutas.xlsx
@@ -443,931 +443,931 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D001301</t>
+          <t>D001047</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D001037</t>
+          <t>D001110</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D004109</t>
+          <t>D002026</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D004024</t>
+          <t>D002052</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D004027</t>
+          <t>D001023</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D003030</t>
+          <t>D002016</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D001018</t>
+          <t>D001033</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D001020</t>
+          <t>D001045</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D001027</t>
+          <t>D003029</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D004008</t>
+          <t>D001059</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D003001</t>
+          <t>D001302</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D001009</t>
+          <t>D002005</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D001106</t>
+          <t>D001016</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D001036</t>
+          <t>D001026</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D001041</t>
+          <t>D001030</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D004026</t>
+          <t>D001048</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D004009</t>
+          <t>D001055</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D002039</t>
+          <t>D003027</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D001019</t>
+          <t>D003028</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D001002</t>
+          <t>D001007</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D001010</t>
+          <t>D001008</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D003031</t>
+          <t>D002009</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D002034</t>
+          <t>D002010</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D001026</t>
+          <t>D004001</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D001030</t>
+          <t>D004015</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D001048</t>
+          <t>D001003</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D001016</t>
+          <t>D001044</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D001109</t>
+          <t>D003032</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D001032</t>
+          <t>D002004</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D001034</t>
+          <t>D002050</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D002014</t>
+          <t>D002107</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D001022</t>
+          <t>D003003</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D004037</t>
+          <t>D001039</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D003008</t>
+          <t>D002048</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D001108</t>
+          <t>D001021</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D002006</t>
+          <t>D001102</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>D003014</t>
+          <t>D001042</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D002023</t>
+          <t>D003033</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>D004039</t>
+          <t>D002022</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>D001033</t>
+          <t>D002049</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>D001045</t>
+          <t>D002056</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>D001021</t>
+          <t>D003018</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>D004025</t>
+          <t>D002108</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>D003029</t>
+          <t>D001009</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>D001059</t>
+          <t>D001058</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>D002044</t>
+          <t>D001106</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>D001058</t>
+          <t>D001107</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>D002008</t>
+          <t>D002055</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>D002011</t>
+          <t>D003016</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>D002012</t>
+          <t>D003019</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>D001107</t>
+          <t>D003030</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>D003016</t>
+          <t>D003034</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>D003019</t>
+          <t>D001108</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>D001061</t>
+          <t>D002006</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>D002024</t>
+          <t>D003014</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>D004045</t>
+          <t>D003008</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>D001101</t>
+          <t>D001037</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>D002025</t>
+          <t>D001062</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>D001111</t>
+          <t>D001109</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>D001201</t>
+          <t>D001111</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>D002019</t>
+          <t>D001201</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>D004040</t>
+          <t>D001013</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>D002051</t>
+          <t>D001005</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>D001302</t>
+          <t>D001060</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>D002015</t>
+          <t>D002002</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>D003034</t>
+          <t>D002031</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>D002109</t>
+          <t>D003021</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>D002055</t>
+          <t>D002035</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>D004018</t>
+          <t>D002015</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>D001014</t>
+          <t>D001050</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>D002017</t>
+          <t>D001019</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>D004110</t>
+          <t>D001002</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>D001053</t>
+          <t>D001010</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>D001024</t>
+          <t>D003031</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>D001044</t>
+          <t>D001061</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>D001003</t>
+          <t>D002024</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>D001011</t>
+          <t>D002034</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>D001039</t>
+          <t>D002001</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>D004022</t>
+          <t>D002003</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>D002001</t>
+          <t>D002019</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>D002003</t>
+          <t>D003017</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>D001007</t>
+          <t>D002037</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>D001008</t>
+          <t>D003004</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>D002037</t>
+          <t>D002013</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>D002009</t>
+          <t>D001104</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>D002010</t>
+          <t>D002008</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>D003027</t>
+          <t>D002011</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>D003028</t>
+          <t>D002012</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>D002043</t>
+          <t>D002109</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>D003056</t>
+          <t>D002040</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>D001055</t>
+          <t>D002041</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>D001012</t>
+          <t>D003015</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>D001031</t>
+          <t>D001012</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>D001004</t>
+          <t>D001031</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>D001052</t>
+          <t>D001004</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>D002016</t>
+          <t>D002036</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>D001047</t>
+          <t>D004038</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>D001050</t>
+          <t>D003106</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>D001110</t>
+          <t>D004018</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>D001023</t>
+          <t>D002043</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>D004011</t>
+          <t>D001006</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>D004012</t>
+          <t>D003035</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>D001062</t>
+          <t>D002038</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>D003017</t>
+          <t>D003007</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>D004036</t>
+          <t>D002021</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>D002036</t>
+          <t>D003036</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>D001006</t>
+          <t>D001015</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>D002038</t>
+          <t>D001025</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>D003007</t>
+          <t>D001056</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>D003055</t>
+          <t>D001202</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>D004043</t>
+          <t>D001014</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>D004038</t>
+          <t>D002027</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>D002042</t>
+          <t>D002030</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>D001042</t>
+          <t>D002032</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>D004023</t>
+          <t>D001024</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>D003033</t>
+          <t>D001032</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>D002013</t>
+          <t>D001034</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>D004042</t>
+          <t>D002051</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>D002049</t>
+          <t>D002057</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>D002056</t>
+          <t>D001022</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>D003047</t>
+          <t>D001105</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>D003060</t>
+          <t>D002007</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>D002108</t>
+          <t>D001301</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>D003018</t>
+          <t>D002042</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>D004028</t>
+          <t>D003020</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>D004108</t>
+          <t>D002053</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>D004016</t>
+          <t>D002039</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>D001005</t>
+          <t>D003006</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>D001013</t>
+          <t>D002044</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>D001060</t>
+          <t>D001036</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>D004010</t>
+          <t>D002028</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>D003004</t>
+          <t>D001112</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>D004044</t>
+          <t>D001049</t>
         </is>
       </c>
     </row>
@@ -1381,406 +1381,406 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>D003106</t>
+          <t>D003055</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>D003006</t>
+          <t>D002020</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>D003010</t>
+          <t>D002014</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>D004105</t>
+          <t>D003037</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>D003057</t>
+          <t>D001101</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>D003009</t>
+          <t>D001011</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>D003035</t>
+          <t>D002045</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>D002020</t>
+          <t>D002017</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>D003105</t>
+          <t>D003067</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>D003053</t>
+          <t>D004007</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>D004035</t>
+          <t>D004036</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>D003067</t>
+          <t>D003301</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>D003020</t>
+          <t>D003057</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>D004007</t>
+          <t>D001052</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>D004004</t>
+          <t>D001103</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>D004014</t>
+          <t>D003009</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>D001025</t>
+          <t>D001018</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>D001049</t>
+          <t>D001020</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>D001015</t>
+          <t>D001027</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>D001112</t>
+          <t>D002023</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>D001202</t>
+          <t>D002025</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>D004013</t>
+          <t>D003001</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>D002004</t>
+          <t>D003105</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>D003032</t>
+          <t>D004043</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>D001103</t>
+          <t>D004044</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>D002027</t>
+          <t>D004037</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>D002030</t>
+          <t>D001094</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>D002050</t>
+          <t>D004004</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>D003039</t>
+          <t>D003053</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>D003049</t>
+          <t>D002101</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>D001056</t>
+          <t>D002018</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>D004112</t>
+          <t>D002033</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>D002107</t>
+          <t>D004022</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>D003003</t>
+          <t>D003039</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>D004111</t>
+          <t>D001053</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>D002054</t>
+          <t>D003022</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>D003002</t>
+          <t>D004006</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>D002018</t>
+          <t>D001041</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>D002022</t>
+          <t>D004023</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>D004003</t>
+          <t>D004014</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>D001094</t>
+          <t>D004010</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>D003042</t>
+          <t>D003102</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>D002002</t>
+          <t>D002054</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>D003036</t>
+          <t>D003002</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>D003102</t>
+          <t>D004024</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>D002035</t>
+          <t>D004027</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>D002040</t>
+          <t>D004045</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>D004001</t>
+          <t>D003023</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>D004015</t>
+          <t>D003049</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>D002052</t>
+          <t>D003046</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>D004002</t>
+          <t>D004040</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>D002053</t>
+          <t>D004009</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>D003058</t>
+          <t>D003061</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>D003059</t>
+          <t>D004019</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>D002021</t>
+          <t>D003025</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>D002041</t>
+          <t>D004011</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>D002032</t>
+          <t>D004012</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>D003104</t>
+          <t>D004002</t>
         </is>
       </c>
     </row>
@@ -1794,427 +1794,427 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>D004046</t>
+          <t>D003026</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>D002057</t>
+          <t>D002102</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>D004030</t>
+          <t>D003042</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>D003046</t>
+          <t>D004026</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>D002031</t>
+          <t>D004030</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>D002026</t>
+          <t>D004017</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>D004101</t>
+          <t>D003038</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>D003063</t>
+          <t>D004109</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>D003051</t>
+          <t>D002106</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>D002028</t>
+          <t>D004016</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>D004031</t>
+          <t>D004104</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>D004017</t>
+          <t>D004025</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>D001104</t>
+          <t>D004003</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>D004029</t>
+          <t>D002047</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>D003044</t>
+          <t>D004107</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>D003045</t>
+          <t>D004101</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>D003061</t>
+          <t>D004035</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>D003021</t>
+          <t>D003104</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>D004104</t>
+          <t>D003056</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>D002045</t>
+          <t>D003060</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>D003025</t>
+          <t>D004029</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>D004020</t>
+          <t>D004042</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>D004032</t>
+          <t>D003047</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>D001105</t>
+          <t>D003044</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>D003013</t>
+          <t>D004021</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>D002033</t>
+          <t>D003058</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>D004102</t>
+          <t>D003059</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>D002047</t>
+          <t>D003062</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>D003023</t>
+          <t>D003050</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>D004107</t>
+          <t>D003052</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>D004006</t>
+          <t>D004034</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>D003052</t>
+          <t>D002046</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>D004106</t>
+          <t>D002104</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>D002106</t>
+          <t>D004031</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>D002101</t>
+          <t>D003013</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>D003026</t>
+          <t>D004112</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>D004034</t>
+          <t>D004046</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>D004103</t>
+          <t>D004028</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>D004033</t>
+          <t>D003065</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>D002046</t>
+          <t>D002103</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>D003037</t>
+          <t>D004103</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>D003062</t>
+          <t>D003101</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>D004019</t>
+          <t>D003041</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>D003065</t>
+          <t>D004005</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>D002102</t>
+          <t>D004041</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>D003050</t>
+          <t>D004102</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>D003038</t>
+          <t>D004033</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>D004021</t>
+          <t>D004110</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>D002103</t>
+          <t>D004013</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>D002104</t>
+          <t>D003045</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>D004041</t>
+          <t>D004111</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>D002005</t>
+          <t>D004032</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>D003015</t>
+          <t>D004108</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>D001102</t>
+          <t>D004106</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>D003101</t>
+          <t>D003051</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>D004005</t>
+          <t>D003063</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>D002048</t>
+          <t>D004008</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>D003041</t>
+          <t>D003010</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>D003301</t>
+          <t>D004020</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>D002007</t>
+          <t>D004039</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>D003022</t>
+          <t>D004105</t>
         </is>
       </c>
     </row>

--- a/Resultados/Lista_unique_rutas.xlsx
+++ b/Resultados/Lista_unique_rutas.xlsx
@@ -443,1778 +443,1778 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D001047</t>
+          <t>D001018</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D001110</t>
+          <t>D001020</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D002026</t>
+          <t>D001027</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D002052</t>
+          <t>D002023</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D001023</t>
+          <t>D002025</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D002016</t>
+          <t>D002013</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D001033</t>
+          <t>D001104</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D001045</t>
+          <t>D001105</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D003029</t>
+          <t>D004023</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D001059</t>
+          <t>D004028</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D001302</t>
+          <t>D003018</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D002005</t>
+          <t>D003033</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D001016</t>
+          <t>D001019</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D001026</t>
+          <t>D001002</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D001030</t>
+          <t>D001010</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D001048</t>
+          <t>D003106</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D001055</t>
+          <t>D001061</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D003027</t>
+          <t>D003031</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D003028</t>
+          <t>D002034</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D001007</t>
+          <t>D002024</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D001008</t>
+          <t>D001026</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D002009</t>
+          <t>D001030</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D002010</t>
+          <t>D001016</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D004001</t>
+          <t>D001109</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D004015</t>
+          <t>D001111</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D001003</t>
+          <t>D001201</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D001044</t>
+          <t>D002001</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D003032</t>
+          <t>D001110</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D002004</t>
+          <t>D001047</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D002050</t>
+          <t>D002016</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D002107</t>
+          <t>D001023</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D003003</t>
+          <t>D004001</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D001039</t>
+          <t>D004038</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D002048</t>
+          <t>D004015</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D001021</t>
+          <t>D003001</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D001102</t>
+          <t>D004008</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>D001042</t>
+          <t>D002049</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D003033</t>
+          <t>D001042</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>D002022</t>
+          <t>D004108</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>D002049</t>
+          <t>D002022</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>D002056</t>
+          <t>D003043</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>D003018</t>
+          <t>D003047</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>D002108</t>
+          <t>D002052</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>D001009</t>
+          <t>D001050</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>D001058</t>
+          <t>D002026</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>D001106</t>
+          <t>D002003</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>D001107</t>
+          <t>D001048</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>D002055</t>
+          <t>D004039</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>D003016</t>
+          <t>D002108</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>D003019</t>
+          <t>D003004</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>D003030</t>
+          <t>D001055</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>D003034</t>
+          <t>D001062</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>D001108</t>
+          <t>D004002</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>D002006</t>
+          <t>D001006</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>D003014</t>
+          <t>D003103</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>D003008</t>
+          <t>D002038</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>D001037</t>
+          <t>D003007</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>D001062</t>
+          <t>D003055</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>D001109</t>
+          <t>D003035</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>D001111</t>
+          <t>D002021</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>D001201</t>
+          <t>D004016</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>D001013</t>
+          <t>D002056</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>D001005</t>
+          <t>D003009</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>D001060</t>
+          <t>D001014</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>D002002</t>
+          <t>D001024</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>D002031</t>
+          <t>D003067</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>D003021</t>
+          <t>D004004</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>D002035</t>
+          <t>D004110</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>D002015</t>
+          <t>D002027</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>D001050</t>
+          <t>D002030</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>D001019</t>
+          <t>D001032</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>D001002</t>
+          <t>D001034</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>D001010</t>
+          <t>D002014</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>D003031</t>
+          <t>D001022</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>D001061</t>
+          <t>D004006</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>D002024</t>
+          <t>D001037</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>D002034</t>
+          <t>D001108</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>D002001</t>
+          <t>D002006</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>D002003</t>
+          <t>D003014</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>D002019</t>
+          <t>D003008</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>D003017</t>
+          <t>D003030</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>D002037</t>
+          <t>D001012</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>D003004</t>
+          <t>D001031</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>D002013</t>
+          <t>D001004</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>D001104</t>
+          <t>D002036</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>D002008</t>
+          <t>D004007</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>D002011</t>
+          <t>D004036</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>D002012</t>
+          <t>D003057</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>D002109</t>
+          <t>D001025</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>D002040</t>
+          <t>D001015</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>D002041</t>
+          <t>D001112</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>D003015</t>
+          <t>D001202</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>D001012</t>
+          <t>D004003</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>D001031</t>
+          <t>D001056</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>D001004</t>
+          <t>D003020</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>D002036</t>
+          <t>D003034</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>D004038</t>
+          <t>D004109</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>D003106</t>
+          <t>D004024</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>D004018</t>
+          <t>D001009</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>D002043</t>
+          <t>D002008</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>D001006</t>
+          <t>D002011</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>D003035</t>
+          <t>D002012</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>D002038</t>
+          <t>D001058</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>D003007</t>
+          <t>D004026</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>D002021</t>
+          <t>D003016</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>D003036</t>
+          <t>D004027</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>D001015</t>
+          <t>D002109</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>D001025</t>
+          <t>D001101</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>D001056</t>
+          <t>D003105</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>D001202</t>
+          <t>D003010</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>D001014</t>
+          <t>D001013</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>D002027</t>
+          <t>D001005</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>D002030</t>
+          <t>D001060</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>D002032</t>
+          <t>D003102</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>D001024</t>
+          <t>D002002</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>D001032</t>
+          <t>D002031</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>D001034</t>
+          <t>D002035</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>D002051</t>
+          <t>D002040</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>D002057</t>
+          <t>D002041</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>D001022</t>
+          <t>D002042</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>D001105</t>
+          <t>D001052</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>D002007</t>
+          <t>D003301</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>D001301</t>
+          <t>D001033</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>D002042</t>
+          <t>D001021</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>D003020</t>
+          <t>D001302</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>D002053</t>
+          <t>D002005</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>D002039</t>
+          <t>D003101</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>D003006</t>
+          <t>D004005</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>D002044</t>
+          <t>D001059</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>D001036</t>
+          <t>D001102</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>D002028</t>
+          <t>D001007</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>D001112</t>
+          <t>D001008</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>D001049</t>
+          <t>D002037</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>D003103</t>
+          <t>D002009</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>D003055</t>
+          <t>D002010</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>D002020</t>
+          <t>D003027</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>D002014</t>
+          <t>D004037</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>D003037</t>
+          <t>D004040</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>D001101</t>
+          <t>D003028</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>D001011</t>
+          <t>D003104</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>D002045</t>
+          <t>D003017</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>D002017</t>
+          <t>D002043</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>D003067</t>
+          <t>D003056</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>D004007</t>
+          <t>D003060</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>D004036</t>
+          <t>D001094</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>D003301</t>
+          <t>D002051</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>D003057</t>
+          <t>D003046</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>D001052</t>
+          <t>D003058</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>D001103</t>
+          <t>D003059</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>D003009</t>
+          <t>D001301</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>D001018</t>
+          <t>D003029</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>D001020</t>
+          <t>D002015</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>D001027</t>
+          <t>D004025</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>D002023</t>
+          <t>D002020</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>D002025</t>
+          <t>D003036</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>D003001</t>
+          <t>D001003</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>D003105</t>
+          <t>D001011</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>D004043</t>
+          <t>D001044</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>D004044</t>
+          <t>D001039</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>D004037</t>
+          <t>D004022</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>D001094</t>
+          <t>D004043</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>D004004</t>
+          <t>D004044</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>D003053</t>
+          <t>D003021</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>D002101</t>
+          <t>D003019</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>D002018</t>
+          <t>D001036</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>D002033</t>
+          <t>D001041</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>D004022</t>
+          <t>D003015</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>D003039</t>
+          <t>D001045</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>D001053</t>
+          <t>D001106</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>D003022</t>
+          <t>D001107</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>D004006</t>
+          <t>D002039</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>D001041</t>
+          <t>D001049</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>D004023</t>
+          <t>D004111</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>D004014</t>
+          <t>D002018</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>D004010</t>
+          <t>D002054</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>D003102</t>
+          <t>D002032</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>D002054</t>
+          <t>D002017</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>D003002</t>
+          <t>D004010</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>D004024</t>
+          <t>D004045</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>D004027</t>
+          <t>D001103</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>D004045</t>
+          <t>D003032</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>D003023</t>
+          <t>D002004</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>D003049</t>
+          <t>D002050</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>D003046</t>
+          <t>D003053</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>D004040</t>
+          <t>D004014</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>D004009</t>
+          <t>D001053</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>D003061</t>
+          <t>D004009</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>D004019</t>
+          <t>D002055</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>D003025</t>
+          <t>D004020</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>D004011</t>
+          <t>D002044</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>D004012</t>
+          <t>D003042</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>D004002</t>
+          <t>D003006</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>D003043</t>
+          <t>D004105</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>D003026</t>
+          <t>D003061</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>D002102</t>
+          <t>D004031</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>D003042</t>
+          <t>D003041</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>D004026</t>
+          <t>D002028</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>D004030</t>
+          <t>D003045</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>D004017</t>
+          <t>D004035</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>D003038</t>
+          <t>D004030</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>D004109</t>
+          <t>D004042</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>D002106</t>
+          <t>D002057</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>D004016</t>
+          <t>D003002</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>D004104</t>
+          <t>D003039</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>D004025</t>
+          <t>D003049</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>D004003</t>
+          <t>D004104</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>D002047</t>
+          <t>D002107</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>D004107</t>
+          <t>D003003</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>D004101</t>
+          <t>D003013</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>D004035</t>
+          <t>D002007</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>D003104</t>
+          <t>D002048</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>D003056</t>
+          <t>D003037</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>D003060</t>
+          <t>D002045</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>D004029</t>
+          <t>D004013</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>D004042</t>
+          <t>D004032</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>D003047</t>
+          <t>D004112</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>D003044</t>
+          <t>D002101</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>D004021</t>
+          <t>D004041</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>D003058</t>
+          <t>D004107</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>D003059</t>
+          <t>D002106</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>D003062</t>
+          <t>D004019</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>D003050</t>
+          <t>D004034</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>D003052</t>
+          <t>D002103</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>D004034</t>
+          <t>D003022</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>D002046</t>
+          <t>D004106</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>D002104</t>
+          <t>D004046</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>D004031</t>
+          <t>D003050</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>D003013</t>
+          <t>D003038</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>D004112</t>
+          <t>D003062</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>D004046</t>
+          <t>D004029</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>D004028</t>
+          <t>D003025</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>D003065</t>
+          <t>D004021</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>D002103</t>
+          <t>D004101</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>D004103</t>
+          <t>D004011</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>D003101</t>
+          <t>D002104</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>D003041</t>
+          <t>D003026</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>D004005</t>
+          <t>D002033</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>D004041</t>
+          <t>D004017</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>D004102</t>
+          <t>D003023</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>D004033</t>
+          <t>D002047</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>D004110</t>
+          <t>D004012</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>D004013</t>
+          <t>D002019</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>D003045</t>
+          <t>D003044</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>D004111</t>
+          <t>D002053</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>D004032</t>
+          <t>D004033</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>D004108</t>
+          <t>D002046</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>D004106</t>
+          <t>D003065</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>D003051</t>
+          <t>D004103</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>D003063</t>
+          <t>D002102</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>D004008</t>
+          <t>D004102</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>D003010</t>
+          <t>D003052</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>D004020</t>
+          <t>D003063</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>D004039</t>
+          <t>D004018</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>D004105</t>
+          <t>D003051</t>
         </is>
       </c>
     </row>
